--- a/네이버금융 재무제표 크롤링.xlsx
+++ b/네이버금융 재무제표 크롤링.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Stock\Git_Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C701E4-29CE-4947-9625-E933BB29AB1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25DF5C6-6DF2-499E-93C7-4E5156389077}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,7 +576,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
